--- a/aspnet-core/test/Timesheet.Application.Tests/Tables/dbo.TeamBuildingRequestHistoryFiles.xlsx
+++ b/aspnet-core/test/Timesheet.Application.Tests/Tables/dbo.TeamBuildingRequestHistoryFiles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duong\Workspace\ncc-erp-timesheet\aspnet-core\test\Timesheet.Application.Tests\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NCC\ncc-erp-timesheet\aspnet-core\test\Timesheet.Application.Tests\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811145FE-07B8-4632-88FD-5C04C4B092C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2698CD-FB18-4B64-ADCD-C32CE614155F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -477,21 +477,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25" customWidth="1"/>
-    <col min="13" max="13" width="9.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.3984375" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +533,7 @@
       </c>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -565,7 +565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -725,7 +725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -757,7 +757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -789,7 +789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -821,7 +821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -883,102 +883,6 @@
       </c>
       <c r="N12" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5">
-        <v>45003.715810127316</v>
-      </c>
-      <c r="E13" s="5">
-        <v>45012.397638888891</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13">
-        <v>12</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="7">
-        <v>110000</v>
-      </c>
-      <c r="N13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" s="5">
-        <v>45003.715810127316</v>
-      </c>
-      <c r="E14" s="5">
-        <v>45012.397638888891</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14">
-        <v>13</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="7">
-        <v>110000</v>
-      </c>
-      <c r="N14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" s="5">
-        <v>45003.715810127316</v>
-      </c>
-      <c r="E15" s="5">
-        <v>45012.397638888891</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15">
-        <v>14</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15" s="7">
-        <v>110000</v>
-      </c>
-      <c r="N15" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -994,11 +898,8 @@
     <hyperlink ref="J10" r:id="rId9" xr:uid="{695F7B0B-56AD-4BB2-BDF5-CD405D46ED00}"/>
     <hyperlink ref="J11" r:id="rId10" xr:uid="{CADC5DE3-CDA3-44A6-A23F-325A17F34685}"/>
     <hyperlink ref="J12" r:id="rId11" xr:uid="{893DAD1D-86E0-48C3-B7B1-EF3520374A7A}"/>
-    <hyperlink ref="J13" r:id="rId12" xr:uid="{22C194C1-23AC-45BB-A1C7-88AE978208A9}"/>
-    <hyperlink ref="J14" r:id="rId13" xr:uid="{6C172FCC-B61C-43B2-9DC5-5E3C76F3D1D2}"/>
-    <hyperlink ref="J15" r:id="rId14" xr:uid="{0134761A-552F-47BB-AE0E-6DFC865F2A0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>